--- a/output_region_cycle2017_summary_Europe_and_North_America.xlsx
+++ b/output_region_cycle2017_summary_Europe_and_North_America.xlsx
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>29</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>24</v>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>26</v>
@@ -892,13 +892,13 @@
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
